--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Codew\OneDrive\Desktop\voxel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018185A5-681C-43AE-A248-726BC3B314D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0CA4D2-9CE2-4B79-B791-F3F8CB8E4864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlockModelDGCement11" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,536 +613,6 @@
       </c>
       <c r="Q3">
         <v>42.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>108380213</v>
-      </c>
-      <c r="B4">
-        <v>3194420</v>
-      </c>
-      <c r="C4">
-        <v>948570</v>
-      </c>
-      <c r="D4">
-        <v>838</v>
-      </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>12000</v>
-      </c>
-      <c r="I4">
-        <v>31200</v>
-      </c>
-      <c r="J4">
-        <v>4680000</v>
-      </c>
-      <c r="K4">
-        <v>0.23</v>
-      </c>
-      <c r="L4">
-        <v>52.65</v>
-      </c>
-      <c r="M4">
-        <v>0.06</v>
-      </c>
-      <c r="N4">
-        <v>2.76</v>
-      </c>
-      <c r="O4">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P4">
-        <v>0.03</v>
-      </c>
-      <c r="Q4">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>108380221</v>
-      </c>
-      <c r="B5">
-        <v>3194420</v>
-      </c>
-      <c r="C5">
-        <v>948590</v>
-      </c>
-      <c r="D5">
-        <v>838</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>12000</v>
-      </c>
-      <c r="I5">
-        <v>31200</v>
-      </c>
-      <c r="J5">
-        <v>4680000</v>
-      </c>
-      <c r="K5">
-        <v>0.18</v>
-      </c>
-      <c r="L5">
-        <v>52.8</v>
-      </c>
-      <c r="M5">
-        <v>0.03</v>
-      </c>
-      <c r="N5">
-        <v>2.62</v>
-      </c>
-      <c r="O5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P5">
-        <v>0.03</v>
-      </c>
-      <c r="Q5">
-        <v>42.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>108380230</v>
-      </c>
-      <c r="B6">
-        <v>3194420</v>
-      </c>
-      <c r="C6">
-        <v>948610</v>
-      </c>
-      <c r="D6">
-        <v>838</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>12000</v>
-      </c>
-      <c r="I6">
-        <v>31200</v>
-      </c>
-      <c r="J6">
-        <v>4680000</v>
-      </c>
-      <c r="K6">
-        <v>0.17</v>
-      </c>
-      <c r="L6">
-        <v>52.82</v>
-      </c>
-      <c r="M6">
-        <v>0.02</v>
-      </c>
-      <c r="N6">
-        <v>2.59</v>
-      </c>
-      <c r="O6">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P6">
-        <v>0.02</v>
-      </c>
-      <c r="Q6">
-        <v>42.74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>108380236</v>
-      </c>
-      <c r="B7">
-        <v>3194420</v>
-      </c>
-      <c r="C7">
-        <v>948630</v>
-      </c>
-      <c r="D7">
-        <v>838</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>12000</v>
-      </c>
-      <c r="I7">
-        <v>31200</v>
-      </c>
-      <c r="J7">
-        <v>4680000</v>
-      </c>
-      <c r="K7">
-        <v>0.2</v>
-      </c>
-      <c r="L7">
-        <v>52.74</v>
-      </c>
-      <c r="M7">
-        <v>0.04</v>
-      </c>
-      <c r="N7">
-        <v>2.67</v>
-      </c>
-      <c r="O7">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="P7">
-        <v>0.03</v>
-      </c>
-      <c r="Q7">
-        <v>42.68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>108240479</v>
-      </c>
-      <c r="B8">
-        <v>3194380</v>
-      </c>
-      <c r="C8">
-        <v>948610</v>
-      </c>
-      <c r="D8">
-        <v>824</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>11200</v>
-      </c>
-      <c r="I8">
-        <v>29120</v>
-      </c>
-      <c r="J8">
-        <v>4076800</v>
-      </c>
-      <c r="K8">
-        <v>0.21</v>
-      </c>
-      <c r="L8">
-        <v>52.09</v>
-      </c>
-      <c r="M8">
-        <v>0.04</v>
-      </c>
-      <c r="N8">
-        <v>5.07</v>
-      </c>
-      <c r="O8">
-        <v>1.36</v>
-      </c>
-      <c r="P8">
-        <v>0.04</v>
-      </c>
-      <c r="Q8">
-        <v>42.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>108240494</v>
-      </c>
-      <c r="B9">
-        <v>3194380</v>
-      </c>
-      <c r="C9">
-        <v>948630</v>
-      </c>
-      <c r="D9">
-        <v>824</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>14</v>
-      </c>
-      <c r="H9">
-        <v>11200</v>
-      </c>
-      <c r="I9">
-        <v>29120</v>
-      </c>
-      <c r="J9">
-        <v>4076800</v>
-      </c>
-      <c r="K9">
-        <v>0.21</v>
-      </c>
-      <c r="L9">
-        <v>52.1</v>
-      </c>
-      <c r="M9">
-        <v>0.04</v>
-      </c>
-      <c r="N9">
-        <v>5.59</v>
-      </c>
-      <c r="O9">
-        <v>1.36</v>
-      </c>
-      <c r="P9">
-        <v>0.03</v>
-      </c>
-      <c r="Q9">
-        <v>42.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>108240367</v>
-      </c>
-      <c r="B10">
-        <v>3194420</v>
-      </c>
-      <c r="C10">
-        <v>948470</v>
-      </c>
-      <c r="D10">
-        <v>824</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>11200</v>
-      </c>
-      <c r="I10">
-        <v>29120</v>
-      </c>
-      <c r="J10">
-        <v>4076800</v>
-      </c>
-      <c r="K10">
-        <v>0.2</v>
-      </c>
-      <c r="L10">
-        <v>51.97</v>
-      </c>
-      <c r="M10">
-        <v>0.04</v>
-      </c>
-      <c r="N10">
-        <v>3.55</v>
-      </c>
-      <c r="O10">
-        <v>1.38</v>
-      </c>
-      <c r="P10">
-        <v>0.02</v>
-      </c>
-      <c r="Q10">
-        <v>42.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>108240384</v>
-      </c>
-      <c r="B11">
-        <v>3194420</v>
-      </c>
-      <c r="C11">
-        <v>948490</v>
-      </c>
-      <c r="D11">
-        <v>824</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
-      <c r="H11">
-        <v>11200</v>
-      </c>
-      <c r="I11">
-        <v>29120</v>
-      </c>
-      <c r="J11">
-        <v>4076800</v>
-      </c>
-      <c r="K11">
-        <v>0.2</v>
-      </c>
-      <c r="L11">
-        <v>51.97</v>
-      </c>
-      <c r="M11">
-        <v>0.04</v>
-      </c>
-      <c r="N11">
-        <v>3.41</v>
-      </c>
-      <c r="O11">
-        <v>1.39</v>
-      </c>
-      <c r="P11">
-        <v>0.03</v>
-      </c>
-      <c r="Q11">
-        <v>42.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>108240401</v>
-      </c>
-      <c r="B12">
-        <v>3194420</v>
-      </c>
-      <c r="C12">
-        <v>948510</v>
-      </c>
-      <c r="D12">
-        <v>824</v>
-      </c>
-      <c r="E12">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="G12">
-        <v>14</v>
-      </c>
-      <c r="H12">
-        <v>11200</v>
-      </c>
-      <c r="I12">
-        <v>29120</v>
-      </c>
-      <c r="J12">
-        <v>4076800</v>
-      </c>
-      <c r="K12">
-        <v>0.2</v>
-      </c>
-      <c r="L12">
-        <v>51.96</v>
-      </c>
-      <c r="M12">
-        <v>0.04</v>
-      </c>
-      <c r="N12">
-        <v>3.32</v>
-      </c>
-      <c r="O12">
-        <v>1.39</v>
-      </c>
-      <c r="P12">
-        <v>0.04</v>
-      </c>
-      <c r="Q12">
-        <v>42.46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>108240418</v>
-      </c>
-      <c r="B13">
-        <v>3194420</v>
-      </c>
-      <c r="C13">
-        <v>948530</v>
-      </c>
-      <c r="D13">
-        <v>824</v>
-      </c>
-      <c r="E13">
-        <v>40</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>14</v>
-      </c>
-      <c r="H13">
-        <v>11200</v>
-      </c>
-      <c r="I13">
-        <v>29120</v>
-      </c>
-      <c r="J13">
-        <v>4076800</v>
-      </c>
-      <c r="K13">
-        <v>0.2</v>
-      </c>
-      <c r="L13">
-        <v>51.96</v>
-      </c>
-      <c r="M13">
-        <v>0.04</v>
-      </c>
-      <c r="N13">
-        <v>3.33</v>
-      </c>
-      <c r="O13">
-        <v>1.39</v>
-      </c>
-      <c r="P13">
-        <v>0.05</v>
-      </c>
-      <c r="Q13">
-        <v>42.46</v>
       </c>
     </row>
   </sheetData>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Codew\OneDrive\Desktop\voxel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0CA4D2-9CE2-4B79-B791-F3F8CB8E4864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F6926-49C9-4F8B-AA6D-ABA676B49D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlockModelDGCement11" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,6 +612,112 @@
         <v>0.02</v>
       </c>
       <c r="Q3">
+        <v>42.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>108380235</v>
+      </c>
+      <c r="B4">
+        <v>3194380</v>
+      </c>
+      <c r="C4">
+        <v>948650</v>
+      </c>
+      <c r="D4">
+        <v>838</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>12000</v>
+      </c>
+      <c r="I4">
+        <v>31200</v>
+      </c>
+      <c r="J4">
+        <v>4680000</v>
+      </c>
+      <c r="K4">
+        <v>0.17</v>
+      </c>
+      <c r="L4">
+        <v>52.84</v>
+      </c>
+      <c r="M4">
+        <v>0.02</v>
+      </c>
+      <c r="N4">
+        <v>2.57</v>
+      </c>
+      <c r="O4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.02</v>
+      </c>
+      <c r="Q4">
+        <v>42.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>108380235</v>
+      </c>
+      <c r="B5">
+        <v>3194380</v>
+      </c>
+      <c r="C5">
+        <v>948650</v>
+      </c>
+      <c r="D5">
+        <v>853</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>12000</v>
+      </c>
+      <c r="I5">
+        <v>31200</v>
+      </c>
+      <c r="J5">
+        <v>4680000</v>
+      </c>
+      <c r="K5">
+        <v>0.17</v>
+      </c>
+      <c r="L5">
+        <v>52.84</v>
+      </c>
+      <c r="M5">
+        <v>0.02</v>
+      </c>
+      <c r="N5">
+        <v>2.57</v>
+      </c>
+      <c r="O5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.02</v>
+      </c>
+      <c r="Q5">
         <v>42.75</v>
       </c>
     </row>

--- a/blocks.xlsx
+++ b/blocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Codew\OneDrive\Desktop\voxel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F6926-49C9-4F8B-AA6D-ABA676B49D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CE5376-F08C-43F5-BF9E-43EA56B49025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="U89" sqref="U89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,13 +617,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>108380235</v>
+        <v>108380213</v>
       </c>
       <c r="B4">
-        <v>3194380</v>
+        <v>3194420</v>
       </c>
       <c r="C4">
-        <v>948650</v>
+        <v>948570</v>
       </c>
       <c r="D4">
         <v>838</v>
@@ -647,39 +647,39 @@
         <v>4680000</v>
       </c>
       <c r="K4">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="L4">
-        <v>52.84</v>
+        <v>52.65</v>
       </c>
       <c r="M4">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="N4">
-        <v>2.57</v>
+        <v>2.76</v>
       </c>
       <c r="O4">
         <v>1.1200000000000001</v>
       </c>
       <c r="P4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q4">
-        <v>42.75</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>108380235</v>
+        <v>108380221</v>
       </c>
       <c r="B5">
-        <v>3194380</v>
+        <v>3194420</v>
       </c>
       <c r="C5">
-        <v>948650</v>
+        <v>948590</v>
       </c>
       <c r="D5">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -700,25 +700,5060 @@
         <v>4680000</v>
       </c>
       <c r="K5">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="L5">
-        <v>52.84</v>
+        <v>52.8</v>
       </c>
       <c r="M5">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N5">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="O5">
         <v>1.1200000000000001</v>
       </c>
       <c r="P5">
+        <v>0.03</v>
+      </c>
+      <c r="Q5">
+        <v>42.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>108380230</v>
+      </c>
+      <c r="B6">
+        <v>3194420</v>
+      </c>
+      <c r="C6">
+        <v>948610</v>
+      </c>
+      <c r="D6">
+        <v>838</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>12000</v>
+      </c>
+      <c r="I6">
+        <v>31200</v>
+      </c>
+      <c r="J6">
+        <v>4680000</v>
+      </c>
+      <c r="K6">
+        <v>0.17</v>
+      </c>
+      <c r="L6">
+        <v>52.82</v>
+      </c>
+      <c r="M6">
         <v>0.02</v>
       </c>
-      <c r="Q5">
-        <v>42.75</v>
+      <c r="N6">
+        <v>2.59</v>
+      </c>
+      <c r="O6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.02</v>
+      </c>
+      <c r="Q6">
+        <v>42.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>108380236</v>
+      </c>
+      <c r="B7">
+        <v>3194420</v>
+      </c>
+      <c r="C7">
+        <v>948630</v>
+      </c>
+      <c r="D7">
+        <v>838</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>12000</v>
+      </c>
+      <c r="I7">
+        <v>31200</v>
+      </c>
+      <c r="J7">
+        <v>4680000</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="L7">
+        <v>52.74</v>
+      </c>
+      <c r="M7">
+        <v>0.04</v>
+      </c>
+      <c r="N7">
+        <v>2.67</v>
+      </c>
+      <c r="O7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.03</v>
+      </c>
+      <c r="Q7">
+        <v>42.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>108380205</v>
+      </c>
+      <c r="B8">
+        <v>3194460</v>
+      </c>
+      <c r="C8">
+        <v>948550</v>
+      </c>
+      <c r="D8">
+        <v>838</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>12000</v>
+      </c>
+      <c r="I8">
+        <v>31200</v>
+      </c>
+      <c r="J8">
+        <v>4680000</v>
+      </c>
+      <c r="K8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L8">
+        <v>51.52</v>
+      </c>
+      <c r="M8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N8">
+        <v>3.9</v>
+      </c>
+      <c r="O8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.08</v>
+      </c>
+      <c r="Q8">
+        <v>41.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>108380214</v>
+      </c>
+      <c r="B9">
+        <v>3194460</v>
+      </c>
+      <c r="C9">
+        <v>948570</v>
+      </c>
+      <c r="D9">
+        <v>838</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>12000</v>
+      </c>
+      <c r="I9">
+        <v>31200</v>
+      </c>
+      <c r="J9">
+        <v>4680000</v>
+      </c>
+      <c r="K9">
+        <v>0.48</v>
+      </c>
+      <c r="L9">
+        <v>51.84</v>
+      </c>
+      <c r="M9">
+        <v>0.22</v>
+      </c>
+      <c r="N9">
+        <v>3.58</v>
+      </c>
+      <c r="O9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.06</v>
+      </c>
+      <c r="Q9">
+        <v>41.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>108380222</v>
+      </c>
+      <c r="B10">
+        <v>3194460</v>
+      </c>
+      <c r="C10">
+        <v>948590</v>
+      </c>
+      <c r="D10">
+        <v>838</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>12000</v>
+      </c>
+      <c r="I10">
+        <v>31200</v>
+      </c>
+      <c r="J10">
+        <v>4680000</v>
+      </c>
+      <c r="K10">
+        <v>0.42</v>
+      </c>
+      <c r="L10">
+        <v>52.04</v>
+      </c>
+      <c r="M10">
+        <v>0.18</v>
+      </c>
+      <c r="N10">
+        <v>3.38</v>
+      </c>
+      <c r="O10">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.06</v>
+      </c>
+      <c r="Q10">
+        <v>42.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>108380231</v>
+      </c>
+      <c r="B11">
+        <v>3194460</v>
+      </c>
+      <c r="C11">
+        <v>948610</v>
+      </c>
+      <c r="D11">
+        <v>838</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>12000</v>
+      </c>
+      <c r="I11">
+        <v>31200</v>
+      </c>
+      <c r="J11">
+        <v>4680000</v>
+      </c>
+      <c r="K11">
+        <v>0.4</v>
+      </c>
+      <c r="L11">
+        <v>52.12</v>
+      </c>
+      <c r="M11">
+        <v>0.16</v>
+      </c>
+      <c r="N11">
+        <v>3.3</v>
+      </c>
+      <c r="O11">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.05</v>
+      </c>
+      <c r="Q11">
+        <v>42.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>108380237</v>
+      </c>
+      <c r="B12">
+        <v>3194460</v>
+      </c>
+      <c r="C12">
+        <v>948630</v>
+      </c>
+      <c r="D12">
+        <v>838</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>12000</v>
+      </c>
+      <c r="I12">
+        <v>31200</v>
+      </c>
+      <c r="J12">
+        <v>4680000</v>
+      </c>
+      <c r="K12">
+        <v>0.41</v>
+      </c>
+      <c r="L12">
+        <v>52.07</v>
+      </c>
+      <c r="M12">
+        <v>0.17</v>
+      </c>
+      <c r="N12">
+        <v>3.34</v>
+      </c>
+      <c r="O12">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P12">
+        <v>0.05</v>
+      </c>
+      <c r="Q12">
+        <v>42.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>108380198</v>
+      </c>
+      <c r="B13">
+        <v>3194500</v>
+      </c>
+      <c r="C13">
+        <v>948530</v>
+      </c>
+      <c r="D13">
+        <v>838</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>12000</v>
+      </c>
+      <c r="I13">
+        <v>31200</v>
+      </c>
+      <c r="J13">
+        <v>4680000</v>
+      </c>
+      <c r="K13">
+        <v>1.27</v>
+      </c>
+      <c r="L13">
+        <v>49.33</v>
+      </c>
+      <c r="M13">
+        <v>0.71</v>
+      </c>
+      <c r="N13">
+        <v>6.11</v>
+      </c>
+      <c r="O13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.17</v>
+      </c>
+      <c r="Q13">
+        <v>40.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>108380206</v>
+      </c>
+      <c r="B14">
+        <v>3194500</v>
+      </c>
+      <c r="C14">
+        <v>948550</v>
+      </c>
+      <c r="D14">
+        <v>838</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>12000</v>
+      </c>
+      <c r="I14">
+        <v>31200</v>
+      </c>
+      <c r="J14">
+        <v>4680000</v>
+      </c>
+      <c r="K14">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L14">
+        <v>49.7</v>
+      </c>
+      <c r="M14">
+        <v>0.64</v>
+      </c>
+      <c r="N14">
+        <v>5.75</v>
+      </c>
+      <c r="O14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P14">
+        <v>0.15</v>
+      </c>
+      <c r="Q14">
+        <v>40.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>108380215</v>
+      </c>
+      <c r="B15">
+        <v>3194500</v>
+      </c>
+      <c r="C15">
+        <v>948570</v>
+      </c>
+      <c r="D15">
+        <v>838</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>12000</v>
+      </c>
+      <c r="I15">
+        <v>31200</v>
+      </c>
+      <c r="J15">
+        <v>4680000</v>
+      </c>
+      <c r="K15">
+        <v>1.05</v>
+      </c>
+      <c r="L15">
+        <v>50.04</v>
+      </c>
+      <c r="M15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N15">
+        <v>5.4</v>
+      </c>
+      <c r="O15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>40.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>108380223</v>
+      </c>
+      <c r="B16">
+        <v>3194500</v>
+      </c>
+      <c r="C16">
+        <v>948590</v>
+      </c>
+      <c r="D16">
+        <v>838</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>12000</v>
+      </c>
+      <c r="I16">
+        <v>31200</v>
+      </c>
+      <c r="J16">
+        <v>4680000</v>
+      </c>
+      <c r="K16">
+        <v>0.96</v>
+      </c>
+      <c r="L16">
+        <v>50.33</v>
+      </c>
+      <c r="M16">
+        <v>0.52</v>
+      </c>
+      <c r="N16">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="O16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P16">
+        <v>0.13</v>
+      </c>
+      <c r="Q16">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>108380232</v>
+      </c>
+      <c r="B17">
+        <v>3194500</v>
+      </c>
+      <c r="C17">
+        <v>948610</v>
+      </c>
+      <c r="D17">
+        <v>838</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>12000</v>
+      </c>
+      <c r="I17">
+        <v>31200</v>
+      </c>
+      <c r="J17">
+        <v>4680000</v>
+      </c>
+      <c r="K17">
+        <v>0.9</v>
+      </c>
+      <c r="L17">
+        <v>50.52</v>
+      </c>
+      <c r="M17">
+        <v>0.48</v>
+      </c>
+      <c r="N17">
+        <v>4.91</v>
+      </c>
+      <c r="O17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P17">
+        <v>0.12</v>
+      </c>
+      <c r="Q17">
+        <v>40.950000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>108380188</v>
+      </c>
+      <c r="B18">
+        <v>3194540</v>
+      </c>
+      <c r="C18">
+        <v>948510</v>
+      </c>
+      <c r="D18">
+        <v>838</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>12000</v>
+      </c>
+      <c r="I18">
+        <v>31200</v>
+      </c>
+      <c r="J18">
+        <v>4680000</v>
+      </c>
+      <c r="K18">
+        <v>2.02</v>
+      </c>
+      <c r="L18">
+        <v>46.94</v>
+      </c>
+      <c r="M18">
+        <v>1.19</v>
+      </c>
+      <c r="N18">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="O18">
+        <v>1.18</v>
+      </c>
+      <c r="P18">
+        <v>0.26</v>
+      </c>
+      <c r="Q18">
+        <v>38.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>108380199</v>
+      </c>
+      <c r="B19">
+        <v>3194540</v>
+      </c>
+      <c r="C19">
+        <v>948530</v>
+      </c>
+      <c r="D19">
+        <v>838</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>12000</v>
+      </c>
+      <c r="I19">
+        <v>31200</v>
+      </c>
+      <c r="J19">
+        <v>4680000</v>
+      </c>
+      <c r="K19">
+        <v>1.98</v>
+      </c>
+      <c r="L19">
+        <v>47.09</v>
+      </c>
+      <c r="M19">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N19">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="O19">
+        <v>1.18</v>
+      </c>
+      <c r="P19">
+        <v>0.26</v>
+      </c>
+      <c r="Q19">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>108380207</v>
+      </c>
+      <c r="B20">
+        <v>3194540</v>
+      </c>
+      <c r="C20">
+        <v>948550</v>
+      </c>
+      <c r="D20">
+        <v>838</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>12000</v>
+      </c>
+      <c r="I20">
+        <v>31200</v>
+      </c>
+      <c r="J20">
+        <v>4680000</v>
+      </c>
+      <c r="K20">
+        <v>1.9</v>
+      </c>
+      <c r="L20">
+        <v>47.33</v>
+      </c>
+      <c r="M20">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N20">
+        <v>8.14</v>
+      </c>
+      <c r="O20">
+        <v>1.18</v>
+      </c>
+      <c r="P20">
+        <v>0.25</v>
+      </c>
+      <c r="Q20">
+        <v>38.479999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>108380216</v>
+      </c>
+      <c r="B21">
+        <v>3194540</v>
+      </c>
+      <c r="C21">
+        <v>948570</v>
+      </c>
+      <c r="D21">
+        <v>838</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>12000</v>
+      </c>
+      <c r="I21">
+        <v>31200</v>
+      </c>
+      <c r="J21">
+        <v>4680000</v>
+      </c>
+      <c r="K21">
+        <v>1.8</v>
+      </c>
+      <c r="L21">
+        <v>47.64</v>
+      </c>
+      <c r="M21">
+        <v>1.05</v>
+      </c>
+      <c r="N21">
+        <v>7.82</v>
+      </c>
+      <c r="O21">
+        <v>1.18</v>
+      </c>
+      <c r="P21">
+        <v>0.23</v>
+      </c>
+      <c r="Q21">
+        <v>38.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>108380224</v>
+      </c>
+      <c r="B22">
+        <v>3194540</v>
+      </c>
+      <c r="C22">
+        <v>948590</v>
+      </c>
+      <c r="D22">
+        <v>838</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>12000</v>
+      </c>
+      <c r="I22">
+        <v>31200</v>
+      </c>
+      <c r="J22">
+        <v>4680000</v>
+      </c>
+      <c r="K22">
+        <v>1.69</v>
+      </c>
+      <c r="L22">
+        <v>47.99</v>
+      </c>
+      <c r="M22">
+        <v>0.98</v>
+      </c>
+      <c r="N22">
+        <v>7.47</v>
+      </c>
+      <c r="O22">
+        <v>1.17</v>
+      </c>
+      <c r="P22">
+        <v>0.22</v>
+      </c>
+      <c r="Q22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>108380233</v>
+      </c>
+      <c r="B23">
+        <v>3194540</v>
+      </c>
+      <c r="C23">
+        <v>948610</v>
+      </c>
+      <c r="D23">
+        <v>838</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>12000</v>
+      </c>
+      <c r="I23">
+        <v>31200</v>
+      </c>
+      <c r="J23">
+        <v>4680000</v>
+      </c>
+      <c r="K23">
+        <v>1.59</v>
+      </c>
+      <c r="L23">
+        <v>48.34</v>
+      </c>
+      <c r="M23">
+        <v>0.91</v>
+      </c>
+      <c r="N23">
+        <v>7.12</v>
+      </c>
+      <c r="O23">
+        <v>1.17</v>
+      </c>
+      <c r="P23">
+        <v>0.21</v>
+      </c>
+      <c r="Q23">
+        <v>39.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>108380178</v>
+      </c>
+      <c r="B24">
+        <v>3194580</v>
+      </c>
+      <c r="C24">
+        <v>948490</v>
+      </c>
+      <c r="D24">
+        <v>838</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>12000</v>
+      </c>
+      <c r="I24">
+        <v>31200</v>
+      </c>
+      <c r="J24">
+        <v>4680000</v>
+      </c>
+      <c r="K24">
+        <v>2.5</v>
+      </c>
+      <c r="L24">
+        <v>45.43</v>
+      </c>
+      <c r="M24">
+        <v>1.49</v>
+      </c>
+      <c r="N24">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="O24">
+        <v>1.2</v>
+      </c>
+      <c r="P24">
+        <v>0.32</v>
+      </c>
+      <c r="Q24">
+        <v>37.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>108380189</v>
+      </c>
+      <c r="B25">
+        <v>3194580</v>
+      </c>
+      <c r="C25">
+        <v>948510</v>
+      </c>
+      <c r="D25">
+        <v>838</v>
+      </c>
+      <c r="E25">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>12000</v>
+      </c>
+      <c r="I25">
+        <v>31200</v>
+      </c>
+      <c r="J25">
+        <v>4680000</v>
+      </c>
+      <c r="K25">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L25">
+        <v>45.33</v>
+      </c>
+      <c r="M25">
+        <v>1.51</v>
+      </c>
+      <c r="N25">
+        <v>10.16</v>
+      </c>
+      <c r="O25">
+        <v>1.2</v>
+      </c>
+      <c r="P25">
+        <v>0.33</v>
+      </c>
+      <c r="Q25">
+        <v>36.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>108380200</v>
+      </c>
+      <c r="B26">
+        <v>3194580</v>
+      </c>
+      <c r="C26">
+        <v>948530</v>
+      </c>
+      <c r="D26">
+        <v>838</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>12000</v>
+      </c>
+      <c r="I26">
+        <v>31200</v>
+      </c>
+      <c r="J26">
+        <v>4680000</v>
+      </c>
+      <c r="K26">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L26">
+        <v>45.33</v>
+      </c>
+      <c r="M26">
+        <v>1.51</v>
+      </c>
+      <c r="N26">
+        <v>10.16</v>
+      </c>
+      <c r="O26">
+        <v>1.2</v>
+      </c>
+      <c r="P26">
+        <v>0.33</v>
+      </c>
+      <c r="Q26">
+        <v>36.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>108380208</v>
+      </c>
+      <c r="B27">
+        <v>3194580</v>
+      </c>
+      <c r="C27">
+        <v>948550</v>
+      </c>
+      <c r="D27">
+        <v>838</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>12000</v>
+      </c>
+      <c r="I27">
+        <v>31200</v>
+      </c>
+      <c r="J27">
+        <v>4680000</v>
+      </c>
+      <c r="K27">
+        <v>2.5</v>
+      </c>
+      <c r="L27">
+        <v>45.45</v>
+      </c>
+      <c r="M27">
+        <v>1.49</v>
+      </c>
+      <c r="N27">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="O27">
+        <v>1.2</v>
+      </c>
+      <c r="P27">
+        <v>0.32</v>
+      </c>
+      <c r="Q27">
+        <v>37.020000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>108380217</v>
+      </c>
+      <c r="B28">
+        <v>3194580</v>
+      </c>
+      <c r="C28">
+        <v>948570</v>
+      </c>
+      <c r="D28">
+        <v>838</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>12000</v>
+      </c>
+      <c r="I28">
+        <v>31200</v>
+      </c>
+      <c r="J28">
+        <v>4680000</v>
+      </c>
+      <c r="K28">
+        <v>2.42</v>
+      </c>
+      <c r="L28">
+        <v>45.69</v>
+      </c>
+      <c r="M28">
+        <v>1.44</v>
+      </c>
+      <c r="N28">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="O28">
+        <v>1.2</v>
+      </c>
+      <c r="P28">
+        <v>0.31</v>
+      </c>
+      <c r="Q28">
+        <v>37.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>108380225</v>
+      </c>
+      <c r="B29">
+        <v>3194580</v>
+      </c>
+      <c r="C29">
+        <v>948590</v>
+      </c>
+      <c r="D29">
+        <v>838</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>12000</v>
+      </c>
+      <c r="I29">
+        <v>31200</v>
+      </c>
+      <c r="J29">
+        <v>4680000</v>
+      </c>
+      <c r="K29">
+        <v>2.31</v>
+      </c>
+      <c r="L29">
+        <v>46.04</v>
+      </c>
+      <c r="M29">
+        <v>1.37</v>
+      </c>
+      <c r="N29">
+        <v>9.44</v>
+      </c>
+      <c r="O29">
+        <v>1.19</v>
+      </c>
+      <c r="P29">
+        <v>0.3</v>
+      </c>
+      <c r="Q29">
+        <v>37.479999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>108380234</v>
+      </c>
+      <c r="B30">
+        <v>3194580</v>
+      </c>
+      <c r="C30">
+        <v>948610</v>
+      </c>
+      <c r="D30">
+        <v>838</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>12000</v>
+      </c>
+      <c r="I30">
+        <v>31200</v>
+      </c>
+      <c r="J30">
+        <v>4680000</v>
+      </c>
+      <c r="K30">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="L30">
+        <v>46.45</v>
+      </c>
+      <c r="M30">
+        <v>1.29</v>
+      </c>
+      <c r="N30">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="O30">
+        <v>1.19</v>
+      </c>
+      <c r="P30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q30">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>108380179</v>
+      </c>
+      <c r="B31">
+        <v>3194620</v>
+      </c>
+      <c r="C31">
+        <v>948490</v>
+      </c>
+      <c r="D31">
+        <v>838</v>
+      </c>
+      <c r="E31">
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>12000</v>
+      </c>
+      <c r="I31">
+        <v>31200</v>
+      </c>
+      <c r="J31">
+        <v>4680000</v>
+      </c>
+      <c r="K31">
+        <v>2.74</v>
+      </c>
+      <c r="L31">
+        <v>44.68</v>
+      </c>
+      <c r="M31">
+        <v>1.64</v>
+      </c>
+      <c r="N31">
+        <v>10.81</v>
+      </c>
+      <c r="O31">
+        <v>1.21</v>
+      </c>
+      <c r="P31">
+        <v>0.36</v>
+      </c>
+      <c r="Q31">
+        <v>36.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>108380190</v>
+      </c>
+      <c r="B32">
+        <v>3194620</v>
+      </c>
+      <c r="C32">
+        <v>948510</v>
+      </c>
+      <c r="D32">
+        <v>838</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>12000</v>
+      </c>
+      <c r="I32">
+        <v>31200</v>
+      </c>
+      <c r="J32">
+        <v>4680000</v>
+      </c>
+      <c r="K32">
+        <v>2.78</v>
+      </c>
+      <c r="L32">
+        <v>44.54</v>
+      </c>
+      <c r="M32">
+        <v>1.67</v>
+      </c>
+      <c r="N32">
+        <v>10.96</v>
+      </c>
+      <c r="O32">
+        <v>1.21</v>
+      </c>
+      <c r="P32">
+        <v>0.36</v>
+      </c>
+      <c r="Q32">
+        <v>36.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>108380201</v>
+      </c>
+      <c r="B33">
+        <v>3194620</v>
+      </c>
+      <c r="C33">
+        <v>948530</v>
+      </c>
+      <c r="D33">
+        <v>838</v>
+      </c>
+      <c r="E33">
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>12000</v>
+      </c>
+      <c r="I33">
+        <v>31200</v>
+      </c>
+      <c r="J33">
+        <v>4680000</v>
+      </c>
+      <c r="K33">
+        <v>2.8</v>
+      </c>
+      <c r="L33">
+        <v>44.48</v>
+      </c>
+      <c r="M33">
+        <v>1.68</v>
+      </c>
+      <c r="N33">
+        <v>11.02</v>
+      </c>
+      <c r="O33">
+        <v>1.21</v>
+      </c>
+      <c r="P33">
+        <v>0.36</v>
+      </c>
+      <c r="Q33">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>108380209</v>
+      </c>
+      <c r="B34">
+        <v>3194620</v>
+      </c>
+      <c r="C34">
+        <v>948550</v>
+      </c>
+      <c r="D34">
+        <v>838</v>
+      </c>
+      <c r="E34">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>12000</v>
+      </c>
+      <c r="I34">
+        <v>31200</v>
+      </c>
+      <c r="J34">
+        <v>4680000</v>
+      </c>
+      <c r="K34">
+        <v>2.78</v>
+      </c>
+      <c r="L34">
+        <v>44.54</v>
+      </c>
+      <c r="M34">
+        <v>1.67</v>
+      </c>
+      <c r="N34">
+        <v>10.96</v>
+      </c>
+      <c r="O34">
+        <v>1.21</v>
+      </c>
+      <c r="P34">
+        <v>0.36</v>
+      </c>
+      <c r="Q34">
+        <v>36.32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>108380218</v>
+      </c>
+      <c r="B35">
+        <v>3194620</v>
+      </c>
+      <c r="C35">
+        <v>948570</v>
+      </c>
+      <c r="D35">
+        <v>838</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>12000</v>
+      </c>
+      <c r="I35">
+        <v>31200</v>
+      </c>
+      <c r="J35">
+        <v>4680000</v>
+      </c>
+      <c r="K35">
+        <v>2.72</v>
+      </c>
+      <c r="L35">
+        <v>44.72</v>
+      </c>
+      <c r="M35">
+        <v>1.63</v>
+      </c>
+      <c r="N35">
+        <v>10.77</v>
+      </c>
+      <c r="O35">
+        <v>1.21</v>
+      </c>
+      <c r="P35">
+        <v>0.35</v>
+      </c>
+      <c r="Q35">
+        <v>36.46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>108380226</v>
+      </c>
+      <c r="B36">
+        <v>3194620</v>
+      </c>
+      <c r="C36">
+        <v>948590</v>
+      </c>
+      <c r="D36">
+        <v>838</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>12000</v>
+      </c>
+      <c r="I36">
+        <v>31200</v>
+      </c>
+      <c r="J36">
+        <v>4680000</v>
+      </c>
+      <c r="K36">
+        <v>2.63</v>
+      </c>
+      <c r="L36">
+        <v>45.01</v>
+      </c>
+      <c r="M36">
+        <v>1.57</v>
+      </c>
+      <c r="N36">
+        <v>10.48</v>
+      </c>
+      <c r="O36">
+        <v>1.2</v>
+      </c>
+      <c r="P36">
+        <v>0.34</v>
+      </c>
+      <c r="Q36">
+        <v>36.68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>108380169</v>
+      </c>
+      <c r="B37">
+        <v>3194660</v>
+      </c>
+      <c r="C37">
+        <v>948470</v>
+      </c>
+      <c r="D37">
+        <v>838</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>12000</v>
+      </c>
+      <c r="I37">
+        <v>31200</v>
+      </c>
+      <c r="J37">
+        <v>4680000</v>
+      </c>
+      <c r="K37">
+        <v>2.74</v>
+      </c>
+      <c r="L37">
+        <v>44.68</v>
+      </c>
+      <c r="M37">
+        <v>1.64</v>
+      </c>
+      <c r="N37">
+        <v>10.82</v>
+      </c>
+      <c r="O37">
+        <v>1.21</v>
+      </c>
+      <c r="P37">
+        <v>0.36</v>
+      </c>
+      <c r="Q37">
+        <v>36.43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>108380180</v>
+      </c>
+      <c r="B38">
+        <v>3194660</v>
+      </c>
+      <c r="C38">
+        <v>948490</v>
+      </c>
+      <c r="D38">
+        <v>838</v>
+      </c>
+      <c r="E38">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>12000</v>
+      </c>
+      <c r="I38">
+        <v>31200</v>
+      </c>
+      <c r="J38">
+        <v>4680000</v>
+      </c>
+      <c r="K38">
+        <v>2.79</v>
+      </c>
+      <c r="L38">
+        <v>44.5</v>
+      </c>
+      <c r="M38">
+        <v>1.67</v>
+      </c>
+      <c r="N38">
+        <v>11</v>
+      </c>
+      <c r="O38">
+        <v>1.21</v>
+      </c>
+      <c r="P38">
+        <v>0.36</v>
+      </c>
+      <c r="Q38">
+        <v>36.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>108380191</v>
+      </c>
+      <c r="B39">
+        <v>3194660</v>
+      </c>
+      <c r="C39">
+        <v>948510</v>
+      </c>
+      <c r="D39">
+        <v>838</v>
+      </c>
+      <c r="E39">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>12000</v>
+      </c>
+      <c r="I39">
+        <v>31200</v>
+      </c>
+      <c r="J39">
+        <v>4680000</v>
+      </c>
+      <c r="K39">
+        <v>2.83</v>
+      </c>
+      <c r="L39">
+        <v>44.38</v>
+      </c>
+      <c r="M39">
+        <v>1.7</v>
+      </c>
+      <c r="N39">
+        <v>11.12</v>
+      </c>
+      <c r="O39">
+        <v>1.21</v>
+      </c>
+      <c r="P39">
+        <v>0.37</v>
+      </c>
+      <c r="Q39">
+        <v>36.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>108380202</v>
+      </c>
+      <c r="B40">
+        <v>3194660</v>
+      </c>
+      <c r="C40">
+        <v>948530</v>
+      </c>
+      <c r="D40">
+        <v>838</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>12000</v>
+      </c>
+      <c r="I40">
+        <v>31200</v>
+      </c>
+      <c r="J40">
+        <v>4680000</v>
+      </c>
+      <c r="K40">
+        <v>2.85</v>
+      </c>
+      <c r="L40">
+        <v>44.32</v>
+      </c>
+      <c r="M40">
+        <v>1.71</v>
+      </c>
+      <c r="N40">
+        <v>11.18</v>
+      </c>
+      <c r="O40">
+        <v>1.21</v>
+      </c>
+      <c r="P40">
+        <v>0.37</v>
+      </c>
+      <c r="Q40">
+        <v>36.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>108380210</v>
+      </c>
+      <c r="B41">
+        <v>3194660</v>
+      </c>
+      <c r="C41">
+        <v>948550</v>
+      </c>
+      <c r="D41">
+        <v>838</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>12000</v>
+      </c>
+      <c r="I41">
+        <v>31200</v>
+      </c>
+      <c r="J41">
+        <v>4680000</v>
+      </c>
+      <c r="K41">
+        <v>2.84</v>
+      </c>
+      <c r="L41">
+        <v>44.36</v>
+      </c>
+      <c r="M41">
+        <v>1.7</v>
+      </c>
+      <c r="N41">
+        <v>11.14</v>
+      </c>
+      <c r="O41">
+        <v>1.21</v>
+      </c>
+      <c r="P41">
+        <v>0.37</v>
+      </c>
+      <c r="Q41">
+        <v>36.18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>108380219</v>
+      </c>
+      <c r="B42">
+        <v>3194660</v>
+      </c>
+      <c r="C42">
+        <v>948570</v>
+      </c>
+      <c r="D42">
+        <v>838</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>12000</v>
+      </c>
+      <c r="I42">
+        <v>31200</v>
+      </c>
+      <c r="J42">
+        <v>4680000</v>
+      </c>
+      <c r="K42">
+        <v>2.8</v>
+      </c>
+      <c r="L42">
+        <v>44.49</v>
+      </c>
+      <c r="M42">
+        <v>1.68</v>
+      </c>
+      <c r="N42">
+        <v>11.01</v>
+      </c>
+      <c r="O42">
+        <v>1.21</v>
+      </c>
+      <c r="P42">
+        <v>0.36</v>
+      </c>
+      <c r="Q42">
+        <v>36.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>108380227</v>
+      </c>
+      <c r="B43">
+        <v>3194660</v>
+      </c>
+      <c r="C43">
+        <v>948590</v>
+      </c>
+      <c r="D43">
+        <v>838</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>12000</v>
+      </c>
+      <c r="I43">
+        <v>31200</v>
+      </c>
+      <c r="J43">
+        <v>4680000</v>
+      </c>
+      <c r="K43">
+        <v>2.73</v>
+      </c>
+      <c r="L43">
+        <v>44.71</v>
+      </c>
+      <c r="M43">
+        <v>1.63</v>
+      </c>
+      <c r="N43">
+        <v>10.79</v>
+      </c>
+      <c r="O43">
+        <v>1.21</v>
+      </c>
+      <c r="P43">
+        <v>0.35</v>
+      </c>
+      <c r="Q43">
+        <v>36.450000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>108380160</v>
+      </c>
+      <c r="B44">
+        <v>3194700</v>
+      </c>
+      <c r="C44">
+        <v>948450</v>
+      </c>
+      <c r="D44">
+        <v>838</v>
+      </c>
+      <c r="E44">
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>12000</v>
+      </c>
+      <c r="I44">
+        <v>31200</v>
+      </c>
+      <c r="J44">
+        <v>4680000</v>
+      </c>
+      <c r="K44">
+        <v>2.66</v>
+      </c>
+      <c r="L44">
+        <v>44.92</v>
+      </c>
+      <c r="M44">
+        <v>1.59</v>
+      </c>
+      <c r="N44">
+        <v>10.57</v>
+      </c>
+      <c r="O44">
+        <v>1.2</v>
+      </c>
+      <c r="P44">
+        <v>0.35</v>
+      </c>
+      <c r="Q44">
+        <v>36.619999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>108380170</v>
+      </c>
+      <c r="B45">
+        <v>3194700</v>
+      </c>
+      <c r="C45">
+        <v>948470</v>
+      </c>
+      <c r="D45">
+        <v>838</v>
+      </c>
+      <c r="E45">
+        <v>40</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>12000</v>
+      </c>
+      <c r="I45">
+        <v>31200</v>
+      </c>
+      <c r="J45">
+        <v>4680000</v>
+      </c>
+      <c r="K45">
+        <v>2.71</v>
+      </c>
+      <c r="L45">
+        <v>44.76</v>
+      </c>
+      <c r="M45">
+        <v>1.62</v>
+      </c>
+      <c r="N45">
+        <v>10.74</v>
+      </c>
+      <c r="O45">
+        <v>1.21</v>
+      </c>
+      <c r="P45">
+        <v>0.35</v>
+      </c>
+      <c r="Q45">
+        <v>36.49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>108380181</v>
+      </c>
+      <c r="B46">
+        <v>3194700</v>
+      </c>
+      <c r="C46">
+        <v>948490</v>
+      </c>
+      <c r="D46">
+        <v>838</v>
+      </c>
+      <c r="E46">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>12000</v>
+      </c>
+      <c r="I46">
+        <v>31200</v>
+      </c>
+      <c r="J46">
+        <v>4680000</v>
+      </c>
+      <c r="K46">
+        <v>2.75</v>
+      </c>
+      <c r="L46">
+        <v>44.62</v>
+      </c>
+      <c r="M46">
+        <v>1.65</v>
+      </c>
+      <c r="N46">
+        <v>10.87</v>
+      </c>
+      <c r="O46">
+        <v>1.21</v>
+      </c>
+      <c r="P46">
+        <v>0.36</v>
+      </c>
+      <c r="Q46">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>108380192</v>
+      </c>
+      <c r="B47">
+        <v>3194700</v>
+      </c>
+      <c r="C47">
+        <v>948510</v>
+      </c>
+      <c r="D47">
+        <v>838</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>12000</v>
+      </c>
+      <c r="I47">
+        <v>31200</v>
+      </c>
+      <c r="J47">
+        <v>4680000</v>
+      </c>
+      <c r="K47">
+        <v>2.78</v>
+      </c>
+      <c r="L47">
+        <v>44.54</v>
+      </c>
+      <c r="M47">
+        <v>1.67</v>
+      </c>
+      <c r="N47">
+        <v>10.96</v>
+      </c>
+      <c r="O47">
+        <v>1.21</v>
+      </c>
+      <c r="P47">
+        <v>0.36</v>
+      </c>
+      <c r="Q47">
+        <v>36.32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>108380203</v>
+      </c>
+      <c r="B48">
+        <v>3194700</v>
+      </c>
+      <c r="C48">
+        <v>948530</v>
+      </c>
+      <c r="D48">
+        <v>838</v>
+      </c>
+      <c r="E48">
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>12000</v>
+      </c>
+      <c r="I48">
+        <v>31200</v>
+      </c>
+      <c r="J48">
+        <v>4680000</v>
+      </c>
+      <c r="K48">
+        <v>2.79</v>
+      </c>
+      <c r="L48">
+        <v>44.5</v>
+      </c>
+      <c r="M48">
+        <v>1.67</v>
+      </c>
+      <c r="N48">
+        <v>11</v>
+      </c>
+      <c r="O48">
+        <v>1.21</v>
+      </c>
+      <c r="P48">
+        <v>0.36</v>
+      </c>
+      <c r="Q48">
+        <v>36.29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>108380211</v>
+      </c>
+      <c r="B49">
+        <v>3194700</v>
+      </c>
+      <c r="C49">
+        <v>948550</v>
+      </c>
+      <c r="D49">
+        <v>838</v>
+      </c>
+      <c r="E49">
+        <v>40</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>12000</v>
+      </c>
+      <c r="I49">
+        <v>31200</v>
+      </c>
+      <c r="J49">
+        <v>4680000</v>
+      </c>
+      <c r="K49">
+        <v>2.78</v>
+      </c>
+      <c r="L49">
+        <v>44.53</v>
+      </c>
+      <c r="M49">
+        <v>1.67</v>
+      </c>
+      <c r="N49">
+        <v>10.97</v>
+      </c>
+      <c r="O49">
+        <v>1.21</v>
+      </c>
+      <c r="P49">
+        <v>0.36</v>
+      </c>
+      <c r="Q49">
+        <v>36.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>108380220</v>
+      </c>
+      <c r="B50">
+        <v>3194700</v>
+      </c>
+      <c r="C50">
+        <v>948570</v>
+      </c>
+      <c r="D50">
+        <v>838</v>
+      </c>
+      <c r="E50">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>12000</v>
+      </c>
+      <c r="I50">
+        <v>31200</v>
+      </c>
+      <c r="J50">
+        <v>4680000</v>
+      </c>
+      <c r="K50">
+        <v>2.75</v>
+      </c>
+      <c r="L50">
+        <v>44.63</v>
+      </c>
+      <c r="M50">
+        <v>1.65</v>
+      </c>
+      <c r="N50">
+        <v>10.87</v>
+      </c>
+      <c r="O50">
+        <v>1.21</v>
+      </c>
+      <c r="P50">
+        <v>0.36</v>
+      </c>
+      <c r="Q50">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>108380228</v>
+      </c>
+      <c r="B51">
+        <v>3194700</v>
+      </c>
+      <c r="C51">
+        <v>948590</v>
+      </c>
+      <c r="D51">
+        <v>838</v>
+      </c>
+      <c r="E51">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>12000</v>
+      </c>
+      <c r="I51">
+        <v>31200</v>
+      </c>
+      <c r="J51">
+        <v>4680000</v>
+      </c>
+      <c r="K51">
+        <v>2.7</v>
+      </c>
+      <c r="L51">
+        <v>44.79</v>
+      </c>
+      <c r="M51">
+        <v>1.62</v>
+      </c>
+      <c r="N51">
+        <v>10.7</v>
+      </c>
+      <c r="O51">
+        <v>1.21</v>
+      </c>
+      <c r="P51">
+        <v>0.35</v>
+      </c>
+      <c r="Q51">
+        <v>36.520000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>108380151</v>
+      </c>
+      <c r="B52">
+        <v>3194740</v>
+      </c>
+      <c r="C52">
+        <v>948430</v>
+      </c>
+      <c r="D52">
+        <v>838</v>
+      </c>
+      <c r="E52">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <v>12000</v>
+      </c>
+      <c r="I52">
+        <v>31200</v>
+      </c>
+      <c r="J52">
+        <v>4680000</v>
+      </c>
+      <c r="K52">
+        <v>2.56</v>
+      </c>
+      <c r="L52">
+        <v>45.23</v>
+      </c>
+      <c r="M52">
+        <v>1.53</v>
+      </c>
+      <c r="N52">
+        <v>10.26</v>
+      </c>
+      <c r="O52">
+        <v>1.2</v>
+      </c>
+      <c r="P52">
+        <v>0.33</v>
+      </c>
+      <c r="Q52">
+        <v>36.86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>108380161</v>
+      </c>
+      <c r="B53">
+        <v>3194740</v>
+      </c>
+      <c r="C53">
+        <v>948450</v>
+      </c>
+      <c r="D53">
+        <v>838</v>
+      </c>
+      <c r="E53">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>12000</v>
+      </c>
+      <c r="I53">
+        <v>31200</v>
+      </c>
+      <c r="J53">
+        <v>4680000</v>
+      </c>
+      <c r="K53">
+        <v>2.61</v>
+      </c>
+      <c r="L53">
+        <v>45.09</v>
+      </c>
+      <c r="M53">
+        <v>1.56</v>
+      </c>
+      <c r="N53">
+        <v>10.4</v>
+      </c>
+      <c r="O53">
+        <v>1.2</v>
+      </c>
+      <c r="P53">
+        <v>0.34</v>
+      </c>
+      <c r="Q53">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>108380171</v>
+      </c>
+      <c r="B54">
+        <v>3194740</v>
+      </c>
+      <c r="C54">
+        <v>948470</v>
+      </c>
+      <c r="D54">
+        <v>838</v>
+      </c>
+      <c r="E54">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>12000</v>
+      </c>
+      <c r="I54">
+        <v>31200</v>
+      </c>
+      <c r="J54">
+        <v>4680000</v>
+      </c>
+      <c r="K54">
+        <v>2.64</v>
+      </c>
+      <c r="L54">
+        <v>44.97</v>
+      </c>
+      <c r="M54">
+        <v>1.58</v>
+      </c>
+      <c r="N54">
+        <v>10.52</v>
+      </c>
+      <c r="O54">
+        <v>1.2</v>
+      </c>
+      <c r="P54">
+        <v>0.34</v>
+      </c>
+      <c r="Q54">
+        <v>36.659999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>108380182</v>
+      </c>
+      <c r="B55">
+        <v>3194740</v>
+      </c>
+      <c r="C55">
+        <v>948490</v>
+      </c>
+      <c r="D55">
+        <v>838</v>
+      </c>
+      <c r="E55">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>12000</v>
+      </c>
+      <c r="I55">
+        <v>31200</v>
+      </c>
+      <c r="J55">
+        <v>4680000</v>
+      </c>
+      <c r="K55">
+        <v>2.67</v>
+      </c>
+      <c r="L55">
+        <v>44.88</v>
+      </c>
+      <c r="M55">
+        <v>1.6</v>
+      </c>
+      <c r="N55">
+        <v>10.62</v>
+      </c>
+      <c r="O55">
+        <v>1.2</v>
+      </c>
+      <c r="P55">
+        <v>0.35</v>
+      </c>
+      <c r="Q55">
+        <v>36.58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>108380193</v>
+      </c>
+      <c r="B56">
+        <v>3194740</v>
+      </c>
+      <c r="C56">
+        <v>948510</v>
+      </c>
+      <c r="D56">
+        <v>838</v>
+      </c>
+      <c r="E56">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>12000</v>
+      </c>
+      <c r="I56">
+        <v>31200</v>
+      </c>
+      <c r="J56">
+        <v>4680000</v>
+      </c>
+      <c r="K56">
+        <v>2.69</v>
+      </c>
+      <c r="L56">
+        <v>44.82</v>
+      </c>
+      <c r="M56">
+        <v>1.61</v>
+      </c>
+      <c r="N56">
+        <v>10.68</v>
+      </c>
+      <c r="O56">
+        <v>1.2</v>
+      </c>
+      <c r="P56">
+        <v>0.35</v>
+      </c>
+      <c r="Q56">
+        <v>36.54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>108380204</v>
+      </c>
+      <c r="B57">
+        <v>3194740</v>
+      </c>
+      <c r="C57">
+        <v>948530</v>
+      </c>
+      <c r="D57">
+        <v>838</v>
+      </c>
+      <c r="E57">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>15</v>
+      </c>
+      <c r="H57">
+        <v>12000</v>
+      </c>
+      <c r="I57">
+        <v>31200</v>
+      </c>
+      <c r="J57">
+        <v>4680000</v>
+      </c>
+      <c r="K57">
+        <v>2.7</v>
+      </c>
+      <c r="L57">
+        <v>44.8</v>
+      </c>
+      <c r="M57">
+        <v>1.61</v>
+      </c>
+      <c r="N57">
+        <v>10.69</v>
+      </c>
+      <c r="O57">
+        <v>1.2</v>
+      </c>
+      <c r="P57">
+        <v>0.35</v>
+      </c>
+      <c r="Q57">
+        <v>36.520000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>108380212</v>
+      </c>
+      <c r="B58">
+        <v>3194740</v>
+      </c>
+      <c r="C58">
+        <v>948550</v>
+      </c>
+      <c r="D58">
+        <v>838</v>
+      </c>
+      <c r="E58">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>15</v>
+      </c>
+      <c r="H58">
+        <v>12000</v>
+      </c>
+      <c r="I58">
+        <v>31200</v>
+      </c>
+      <c r="J58">
+        <v>4680000</v>
+      </c>
+      <c r="K58">
+        <v>2.69</v>
+      </c>
+      <c r="L58">
+        <v>44.83</v>
+      </c>
+      <c r="M58">
+        <v>1.61</v>
+      </c>
+      <c r="N58">
+        <v>10.66</v>
+      </c>
+      <c r="O58">
+        <v>1.2</v>
+      </c>
+      <c r="P58">
+        <v>0.35</v>
+      </c>
+      <c r="Q58">
+        <v>36.54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>108380152</v>
+      </c>
+      <c r="B59">
+        <v>3194780</v>
+      </c>
+      <c r="C59">
+        <v>948430</v>
+      </c>
+      <c r="D59">
+        <v>838</v>
+      </c>
+      <c r="E59">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>15</v>
+      </c>
+      <c r="H59">
+        <v>12000</v>
+      </c>
+      <c r="I59">
+        <v>31200</v>
+      </c>
+      <c r="J59">
+        <v>4680000</v>
+      </c>
+      <c r="K59">
+        <v>2.5</v>
+      </c>
+      <c r="L59">
+        <v>45.42</v>
+      </c>
+      <c r="M59">
+        <v>1.49</v>
+      </c>
+      <c r="N59">
+        <v>10.07</v>
+      </c>
+      <c r="O59">
+        <v>1.2</v>
+      </c>
+      <c r="P59">
+        <v>0.33</v>
+      </c>
+      <c r="Q59">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>108380162</v>
+      </c>
+      <c r="B60">
+        <v>3194780</v>
+      </c>
+      <c r="C60">
+        <v>948450</v>
+      </c>
+      <c r="D60">
+        <v>838</v>
+      </c>
+      <c r="E60">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>15</v>
+      </c>
+      <c r="H60">
+        <v>12000</v>
+      </c>
+      <c r="I60">
+        <v>31200</v>
+      </c>
+      <c r="J60">
+        <v>4680000</v>
+      </c>
+      <c r="K60">
+        <v>2.54</v>
+      </c>
+      <c r="L60">
+        <v>45.32</v>
+      </c>
+      <c r="M60">
+        <v>1.51</v>
+      </c>
+      <c r="N60">
+        <v>10.17</v>
+      </c>
+      <c r="O60">
+        <v>1.2</v>
+      </c>
+      <c r="P60">
+        <v>0.33</v>
+      </c>
+      <c r="Q60">
+        <v>36.92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>108380172</v>
+      </c>
+      <c r="B61">
+        <v>3194780</v>
+      </c>
+      <c r="C61">
+        <v>948470</v>
+      </c>
+      <c r="D61">
+        <v>838</v>
+      </c>
+      <c r="E61">
+        <v>40</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>12000</v>
+      </c>
+      <c r="I61">
+        <v>31200</v>
+      </c>
+      <c r="J61">
+        <v>4680000</v>
+      </c>
+      <c r="K61">
+        <v>2.56</v>
+      </c>
+      <c r="L61">
+        <v>45.23</v>
+      </c>
+      <c r="M61">
+        <v>1.53</v>
+      </c>
+      <c r="N61">
+        <v>10.26</v>
+      </c>
+      <c r="O61">
+        <v>1.2</v>
+      </c>
+      <c r="P61">
+        <v>0.33</v>
+      </c>
+      <c r="Q61">
+        <v>36.86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>108380183</v>
+      </c>
+      <c r="B62">
+        <v>3194780</v>
+      </c>
+      <c r="C62">
+        <v>948490</v>
+      </c>
+      <c r="D62">
+        <v>838</v>
+      </c>
+      <c r="E62">
+        <v>40</v>
+      </c>
+      <c r="F62">
+        <v>20</v>
+      </c>
+      <c r="G62">
+        <v>15</v>
+      </c>
+      <c r="H62">
+        <v>12000</v>
+      </c>
+      <c r="I62">
+        <v>31200</v>
+      </c>
+      <c r="J62">
+        <v>4680000</v>
+      </c>
+      <c r="K62">
+        <v>2.58</v>
+      </c>
+      <c r="L62">
+        <v>45.17</v>
+      </c>
+      <c r="M62">
+        <v>1.54</v>
+      </c>
+      <c r="N62">
+        <v>10.32</v>
+      </c>
+      <c r="O62">
+        <v>1.2</v>
+      </c>
+      <c r="P62">
+        <v>0.34</v>
+      </c>
+      <c r="Q62">
+        <v>36.81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>108380194</v>
+      </c>
+      <c r="B63">
+        <v>3194780</v>
+      </c>
+      <c r="C63">
+        <v>948510</v>
+      </c>
+      <c r="D63">
+        <v>838</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>20</v>
+      </c>
+      <c r="G63">
+        <v>15</v>
+      </c>
+      <c r="H63">
+        <v>12000</v>
+      </c>
+      <c r="I63">
+        <v>31200</v>
+      </c>
+      <c r="J63">
+        <v>4680000</v>
+      </c>
+      <c r="K63">
+        <v>2.6</v>
+      </c>
+      <c r="L63">
+        <v>45.13</v>
+      </c>
+      <c r="M63">
+        <v>1.55</v>
+      </c>
+      <c r="N63">
+        <v>10.36</v>
+      </c>
+      <c r="O63">
+        <v>1.2</v>
+      </c>
+      <c r="P63">
+        <v>0.34</v>
+      </c>
+      <c r="Q63">
+        <v>36.78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>108380153</v>
+      </c>
+      <c r="B64">
+        <v>3194820</v>
+      </c>
+      <c r="C64">
+        <v>948430</v>
+      </c>
+      <c r="D64">
+        <v>838</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+      <c r="G64">
+        <v>15</v>
+      </c>
+      <c r="H64">
+        <v>12000</v>
+      </c>
+      <c r="I64">
+        <v>31200</v>
+      </c>
+      <c r="J64">
+        <v>4680000</v>
+      </c>
+      <c r="K64">
+        <v>2.44</v>
+      </c>
+      <c r="L64">
+        <v>45.63</v>
+      </c>
+      <c r="M64">
+        <v>1.45</v>
+      </c>
+      <c r="N64">
+        <v>9.86</v>
+      </c>
+      <c r="O64">
+        <v>1.2</v>
+      </c>
+      <c r="P64">
+        <v>0.32</v>
+      </c>
+      <c r="Q64">
+        <v>37.159999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>108380163</v>
+      </c>
+      <c r="B65">
+        <v>3194820</v>
+      </c>
+      <c r="C65">
+        <v>948450</v>
+      </c>
+      <c r="D65">
+        <v>838</v>
+      </c>
+      <c r="E65">
+        <v>40</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="G65">
+        <v>15</v>
+      </c>
+      <c r="H65">
+        <v>12000</v>
+      </c>
+      <c r="I65">
+        <v>31200</v>
+      </c>
+      <c r="J65">
+        <v>4680000</v>
+      </c>
+      <c r="K65">
+        <v>2.46</v>
+      </c>
+      <c r="L65">
+        <v>45.55</v>
+      </c>
+      <c r="M65">
+        <v>1.47</v>
+      </c>
+      <c r="N65">
+        <v>9.93</v>
+      </c>
+      <c r="O65">
+        <v>1.2</v>
+      </c>
+      <c r="P65">
+        <v>0.32</v>
+      </c>
+      <c r="Q65">
+        <v>37.11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>108380173</v>
+      </c>
+      <c r="B66">
+        <v>3194820</v>
+      </c>
+      <c r="C66">
+        <v>948470</v>
+      </c>
+      <c r="D66">
+        <v>838</v>
+      </c>
+      <c r="E66">
+        <v>40</v>
+      </c>
+      <c r="F66">
+        <v>20</v>
+      </c>
+      <c r="G66">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>12000</v>
+      </c>
+      <c r="I66">
+        <v>31200</v>
+      </c>
+      <c r="J66">
+        <v>4680000</v>
+      </c>
+      <c r="K66">
+        <v>2.48</v>
+      </c>
+      <c r="L66">
+        <v>45.49</v>
+      </c>
+      <c r="M66">
+        <v>1.48</v>
+      </c>
+      <c r="N66">
+        <v>10</v>
+      </c>
+      <c r="O66">
+        <v>1.2</v>
+      </c>
+      <c r="P66">
+        <v>0.32</v>
+      </c>
+      <c r="Q66">
+        <v>37.06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>108380184</v>
+      </c>
+      <c r="B67">
+        <v>3194820</v>
+      </c>
+      <c r="C67">
+        <v>948490</v>
+      </c>
+      <c r="D67">
+        <v>838</v>
+      </c>
+      <c r="E67">
+        <v>40</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+      <c r="G67">
+        <v>15</v>
+      </c>
+      <c r="H67">
+        <v>12000</v>
+      </c>
+      <c r="I67">
+        <v>31200</v>
+      </c>
+      <c r="J67">
+        <v>4680000</v>
+      </c>
+      <c r="K67">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="L67">
+        <v>45.45</v>
+      </c>
+      <c r="M67">
+        <v>1.49</v>
+      </c>
+      <c r="N67">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="O67">
+        <v>1.2</v>
+      </c>
+      <c r="P67">
+        <v>0.32</v>
+      </c>
+      <c r="Q67">
+        <v>37.020000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>108380195</v>
+      </c>
+      <c r="B68">
+        <v>3194820</v>
+      </c>
+      <c r="C68">
+        <v>948510</v>
+      </c>
+      <c r="D68">
+        <v>838</v>
+      </c>
+      <c r="E68">
+        <v>40</v>
+      </c>
+      <c r="F68">
+        <v>20</v>
+      </c>
+      <c r="G68">
+        <v>15</v>
+      </c>
+      <c r="H68">
+        <v>12000</v>
+      </c>
+      <c r="I68">
+        <v>31200</v>
+      </c>
+      <c r="J68">
+        <v>4680000</v>
+      </c>
+      <c r="K68">
+        <v>2.5</v>
+      </c>
+      <c r="L68">
+        <v>45.43</v>
+      </c>
+      <c r="M68">
+        <v>1.49</v>
+      </c>
+      <c r="N68">
+        <v>10.06</v>
+      </c>
+      <c r="O68">
+        <v>1.2</v>
+      </c>
+      <c r="P68">
+        <v>0.33</v>
+      </c>
+      <c r="Q68">
+        <v>37.01</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>108380144</v>
+      </c>
+      <c r="B69">
+        <v>3194860</v>
+      </c>
+      <c r="C69">
+        <v>948410</v>
+      </c>
+      <c r="D69">
+        <v>838</v>
+      </c>
+      <c r="E69">
+        <v>40</v>
+      </c>
+      <c r="F69">
+        <v>20</v>
+      </c>
+      <c r="G69">
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <v>12000</v>
+      </c>
+      <c r="I69">
+        <v>31200</v>
+      </c>
+      <c r="J69">
+        <v>4680000</v>
+      </c>
+      <c r="K69">
+        <v>2.35</v>
+      </c>
+      <c r="L69">
+        <v>45.9</v>
+      </c>
+      <c r="M69">
+        <v>1.4</v>
+      </c>
+      <c r="N69">
+        <v>9.58</v>
+      </c>
+      <c r="O69">
+        <v>1.19</v>
+      </c>
+      <c r="P69">
+        <v>0.31</v>
+      </c>
+      <c r="Q69">
+        <v>37.380000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>108380154</v>
+      </c>
+      <c r="B70">
+        <v>3194860</v>
+      </c>
+      <c r="C70">
+        <v>948430</v>
+      </c>
+      <c r="D70">
+        <v>838</v>
+      </c>
+      <c r="E70">
+        <v>40</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
+      <c r="G70">
+        <v>15</v>
+      </c>
+      <c r="H70">
+        <v>12000</v>
+      </c>
+      <c r="I70">
+        <v>31200</v>
+      </c>
+      <c r="J70">
+        <v>4680000</v>
+      </c>
+      <c r="K70">
+        <v>2.37</v>
+      </c>
+      <c r="L70">
+        <v>45.84</v>
+      </c>
+      <c r="M70">
+        <v>1.41</v>
+      </c>
+      <c r="N70">
+        <v>9.65</v>
+      </c>
+      <c r="O70">
+        <v>1.19</v>
+      </c>
+      <c r="P70">
+        <v>0.31</v>
+      </c>
+      <c r="Q70">
+        <v>37.32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>108380164</v>
+      </c>
+      <c r="B71">
+        <v>3194860</v>
+      </c>
+      <c r="C71">
+        <v>948450</v>
+      </c>
+      <c r="D71">
+        <v>838</v>
+      </c>
+      <c r="E71">
+        <v>40</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+      <c r="G71">
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <v>12000</v>
+      </c>
+      <c r="I71">
+        <v>31200</v>
+      </c>
+      <c r="J71">
+        <v>4680000</v>
+      </c>
+      <c r="K71">
+        <v>2.39</v>
+      </c>
+      <c r="L71">
+        <v>45.78</v>
+      </c>
+      <c r="M71">
+        <v>1.42</v>
+      </c>
+      <c r="N71">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="O71">
+        <v>1.19</v>
+      </c>
+      <c r="P71">
+        <v>0.31</v>
+      </c>
+      <c r="Q71">
+        <v>37.28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>108380174</v>
+      </c>
+      <c r="B72">
+        <v>3194860</v>
+      </c>
+      <c r="C72">
+        <v>948470</v>
+      </c>
+      <c r="D72">
+        <v>838</v>
+      </c>
+      <c r="E72">
+        <v>40</v>
+      </c>
+      <c r="F72">
+        <v>20</v>
+      </c>
+      <c r="G72">
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <v>12000</v>
+      </c>
+      <c r="I72">
+        <v>31200</v>
+      </c>
+      <c r="J72">
+        <v>4680000</v>
+      </c>
+      <c r="K72">
+        <v>2.4</v>
+      </c>
+      <c r="L72">
+        <v>45.74</v>
+      </c>
+      <c r="M72">
+        <v>1.43</v>
+      </c>
+      <c r="N72">
+        <v>9.75</v>
+      </c>
+      <c r="O72">
+        <v>1.2</v>
+      </c>
+      <c r="P72">
+        <v>0.31</v>
+      </c>
+      <c r="Q72">
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>108380185</v>
+      </c>
+      <c r="B73">
+        <v>3194860</v>
+      </c>
+      <c r="C73">
+        <v>948490</v>
+      </c>
+      <c r="D73">
+        <v>838</v>
+      </c>
+      <c r="E73">
+        <v>40</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>12000</v>
+      </c>
+      <c r="I73">
+        <v>31200</v>
+      </c>
+      <c r="J73">
+        <v>4680000</v>
+      </c>
+      <c r="K73">
+        <v>2.41</v>
+      </c>
+      <c r="L73">
+        <v>45.71</v>
+      </c>
+      <c r="M73">
+        <v>1.43</v>
+      </c>
+      <c r="N73">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="O73">
+        <v>1.2</v>
+      </c>
+      <c r="P73">
+        <v>0.31</v>
+      </c>
+      <c r="Q73">
+        <v>37.22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>108380196</v>
+      </c>
+      <c r="B74">
+        <v>3194860</v>
+      </c>
+      <c r="C74">
+        <v>948510</v>
+      </c>
+      <c r="D74">
+        <v>838</v>
+      </c>
+      <c r="E74">
+        <v>40</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+      <c r="G74">
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <v>12000</v>
+      </c>
+      <c r="I74">
+        <v>31200</v>
+      </c>
+      <c r="J74">
+        <v>4680000</v>
+      </c>
+      <c r="K74">
+        <v>2.42</v>
+      </c>
+      <c r="L74">
+        <v>45.69</v>
+      </c>
+      <c r="M74">
+        <v>1.44</v>
+      </c>
+      <c r="N74">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="O74">
+        <v>1.2</v>
+      </c>
+      <c r="P74">
+        <v>0.31</v>
+      </c>
+      <c r="Q74">
+        <v>37.21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>108380145</v>
+      </c>
+      <c r="B75">
+        <v>3194900</v>
+      </c>
+      <c r="C75">
+        <v>948410</v>
+      </c>
+      <c r="D75">
+        <v>838</v>
+      </c>
+      <c r="E75">
+        <v>40</v>
+      </c>
+      <c r="F75">
+        <v>20</v>
+      </c>
+      <c r="G75">
+        <v>15</v>
+      </c>
+      <c r="H75">
+        <v>12000</v>
+      </c>
+      <c r="I75">
+        <v>31200</v>
+      </c>
+      <c r="J75">
+        <v>4680000</v>
+      </c>
+      <c r="K75">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L75">
+        <v>46.08</v>
+      </c>
+      <c r="M75">
+        <v>1.36</v>
+      </c>
+      <c r="N75">
+        <v>9.4</v>
+      </c>
+      <c r="O75">
+        <v>1.19</v>
+      </c>
+      <c r="P75">
+        <v>0.3</v>
+      </c>
+      <c r="Q75">
+        <v>37.51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>108380155</v>
+      </c>
+      <c r="B76">
+        <v>3194900</v>
+      </c>
+      <c r="C76">
+        <v>948430</v>
+      </c>
+      <c r="D76">
+        <v>838</v>
+      </c>
+      <c r="E76">
+        <v>40</v>
+      </c>
+      <c r="F76">
+        <v>20</v>
+      </c>
+      <c r="G76">
+        <v>15</v>
+      </c>
+      <c r="H76">
+        <v>12000</v>
+      </c>
+      <c r="I76">
+        <v>31200</v>
+      </c>
+      <c r="J76">
+        <v>4680000</v>
+      </c>
+      <c r="K76">
+        <v>2.31</v>
+      </c>
+      <c r="L76">
+        <v>46.03</v>
+      </c>
+      <c r="M76">
+        <v>1.37</v>
+      </c>
+      <c r="N76">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="O76">
+        <v>1.19</v>
+      </c>
+      <c r="P76">
+        <v>0.3</v>
+      </c>
+      <c r="Q76">
+        <v>37.47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>108380165</v>
+      </c>
+      <c r="B77">
+        <v>3194900</v>
+      </c>
+      <c r="C77">
+        <v>948450</v>
+      </c>
+      <c r="D77">
+        <v>838</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="F77">
+        <v>20</v>
+      </c>
+      <c r="G77">
+        <v>15</v>
+      </c>
+      <c r="H77">
+        <v>12000</v>
+      </c>
+      <c r="I77">
+        <v>31200</v>
+      </c>
+      <c r="J77">
+        <v>4680000</v>
+      </c>
+      <c r="K77">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L77">
+        <v>45.99</v>
+      </c>
+      <c r="M77">
+        <v>1.38</v>
+      </c>
+      <c r="N77">
+        <v>9.49</v>
+      </c>
+      <c r="O77">
+        <v>1.19</v>
+      </c>
+      <c r="P77">
+        <v>0.3</v>
+      </c>
+      <c r="Q77">
+        <v>37.44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>108380175</v>
+      </c>
+      <c r="B78">
+        <v>3194900</v>
+      </c>
+      <c r="C78">
+        <v>948470</v>
+      </c>
+      <c r="D78">
+        <v>838</v>
+      </c>
+      <c r="E78">
+        <v>40</v>
+      </c>
+      <c r="F78">
+        <v>20</v>
+      </c>
+      <c r="G78">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>12000</v>
+      </c>
+      <c r="I78">
+        <v>31200</v>
+      </c>
+      <c r="J78">
+        <v>4680000</v>
+      </c>
+      <c r="K78">
+        <v>2.33</v>
+      </c>
+      <c r="L78">
+        <v>45.96</v>
+      </c>
+      <c r="M78">
+        <v>1.38</v>
+      </c>
+      <c r="N78">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="O78">
+        <v>1.19</v>
+      </c>
+      <c r="P78">
+        <v>0.3</v>
+      </c>
+      <c r="Q78">
+        <v>37.42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>108380186</v>
+      </c>
+      <c r="B79">
+        <v>3194900</v>
+      </c>
+      <c r="C79">
+        <v>948490</v>
+      </c>
+      <c r="D79">
+        <v>838</v>
+      </c>
+      <c r="E79">
+        <v>40</v>
+      </c>
+      <c r="F79">
+        <v>20</v>
+      </c>
+      <c r="G79">
+        <v>15</v>
+      </c>
+      <c r="H79">
+        <v>12000</v>
+      </c>
+      <c r="I79">
+        <v>31200</v>
+      </c>
+      <c r="J79">
+        <v>4680000</v>
+      </c>
+      <c r="K79">
+        <v>2.34</v>
+      </c>
+      <c r="L79">
+        <v>45.94</v>
+      </c>
+      <c r="M79">
+        <v>1.39</v>
+      </c>
+      <c r="N79">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="O79">
+        <v>1.19</v>
+      </c>
+      <c r="P79">
+        <v>0.3</v>
+      </c>
+      <c r="Q79">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>108380197</v>
+      </c>
+      <c r="B80">
+        <v>3194900</v>
+      </c>
+      <c r="C80">
+        <v>948510</v>
+      </c>
+      <c r="D80">
+        <v>838</v>
+      </c>
+      <c r="E80">
+        <v>40</v>
+      </c>
+      <c r="F80">
+        <v>20</v>
+      </c>
+      <c r="G80">
+        <v>15</v>
+      </c>
+      <c r="H80">
+        <v>12000</v>
+      </c>
+      <c r="I80">
+        <v>31200</v>
+      </c>
+      <c r="J80">
+        <v>4680000</v>
+      </c>
+      <c r="K80">
+        <v>2.34</v>
+      </c>
+      <c r="L80">
+        <v>45.93</v>
+      </c>
+      <c r="M80">
+        <v>1.39</v>
+      </c>
+      <c r="N80">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="O80">
+        <v>1.19</v>
+      </c>
+      <c r="P80">
+        <v>0.3</v>
+      </c>
+      <c r="Q80">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>108380146</v>
+      </c>
+      <c r="B81">
+        <v>3194940</v>
+      </c>
+      <c r="C81">
+        <v>948410</v>
+      </c>
+      <c r="D81">
+        <v>838</v>
+      </c>
+      <c r="E81">
+        <v>40</v>
+      </c>
+      <c r="F81">
+        <v>20</v>
+      </c>
+      <c r="G81">
+        <v>15</v>
+      </c>
+      <c r="H81">
+        <v>12000</v>
+      </c>
+      <c r="I81">
+        <v>31200</v>
+      </c>
+      <c r="J81">
+        <v>4680000</v>
+      </c>
+      <c r="K81">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="L81">
+        <v>46.24</v>
+      </c>
+      <c r="M81">
+        <v>1.33</v>
+      </c>
+      <c r="N81">
+        <v>9.24</v>
+      </c>
+      <c r="O81">
+        <v>1.19</v>
+      </c>
+      <c r="P81">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q81">
+        <v>37.64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>108380156</v>
+      </c>
+      <c r="B82">
+        <v>3194940</v>
+      </c>
+      <c r="C82">
+        <v>948430</v>
+      </c>
+      <c r="D82">
+        <v>838</v>
+      </c>
+      <c r="E82">
+        <v>40</v>
+      </c>
+      <c r="F82">
+        <v>20</v>
+      </c>
+      <c r="G82">
+        <v>15</v>
+      </c>
+      <c r="H82">
+        <v>12000</v>
+      </c>
+      <c r="I82">
+        <v>31200</v>
+      </c>
+      <c r="J82">
+        <v>4680000</v>
+      </c>
+      <c r="K82">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="L82">
+        <v>46.21</v>
+      </c>
+      <c r="M82">
+        <v>1.34</v>
+      </c>
+      <c r="N82">
+        <v>9.27</v>
+      </c>
+      <c r="O82">
+        <v>1.19</v>
+      </c>
+      <c r="P82">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q82">
+        <v>37.61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>108380166</v>
+      </c>
+      <c r="B83">
+        <v>3194940</v>
+      </c>
+      <c r="C83">
+        <v>948450</v>
+      </c>
+      <c r="D83">
+        <v>838</v>
+      </c>
+      <c r="E83">
+        <v>40</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+      <c r="G83">
+        <v>15</v>
+      </c>
+      <c r="H83">
+        <v>12000</v>
+      </c>
+      <c r="I83">
+        <v>31200</v>
+      </c>
+      <c r="J83">
+        <v>4680000</v>
+      </c>
+      <c r="K83">
+        <v>2.27</v>
+      </c>
+      <c r="L83">
+        <v>46.18</v>
+      </c>
+      <c r="M83">
+        <v>1.34</v>
+      </c>
+      <c r="N83">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O83">
+        <v>1.19</v>
+      </c>
+      <c r="P83">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q83">
+        <v>37.590000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>108380176</v>
+      </c>
+      <c r="B84">
+        <v>3194940</v>
+      </c>
+      <c r="C84">
+        <v>948470</v>
+      </c>
+      <c r="D84">
+        <v>838</v>
+      </c>
+      <c r="E84">
+        <v>40</v>
+      </c>
+      <c r="F84">
+        <v>20</v>
+      </c>
+      <c r="G84">
+        <v>15</v>
+      </c>
+      <c r="H84">
+        <v>12000</v>
+      </c>
+      <c r="I84">
+        <v>31200</v>
+      </c>
+      <c r="J84">
+        <v>4680000</v>
+      </c>
+      <c r="K84">
+        <v>2.27</v>
+      </c>
+      <c r="L84">
+        <v>46.15</v>
+      </c>
+      <c r="M84">
+        <v>1.35</v>
+      </c>
+      <c r="N84">
+        <v>9.33</v>
+      </c>
+      <c r="O84">
+        <v>1.19</v>
+      </c>
+      <c r="P84">
+        <v>0.3</v>
+      </c>
+      <c r="Q84">
+        <v>37.57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>108380187</v>
+      </c>
+      <c r="B85">
+        <v>3194940</v>
+      </c>
+      <c r="C85">
+        <v>948490</v>
+      </c>
+      <c r="D85">
+        <v>838</v>
+      </c>
+      <c r="E85">
+        <v>40</v>
+      </c>
+      <c r="F85">
+        <v>20</v>
+      </c>
+      <c r="G85">
+        <v>15</v>
+      </c>
+      <c r="H85">
+        <v>12000</v>
+      </c>
+      <c r="I85">
+        <v>31200</v>
+      </c>
+      <c r="J85">
+        <v>4680000</v>
+      </c>
+      <c r="K85">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="L85">
+        <v>46.14</v>
+      </c>
+      <c r="M85">
+        <v>1.35</v>
+      </c>
+      <c r="N85">
+        <v>9.34</v>
+      </c>
+      <c r="O85">
+        <v>1.19</v>
+      </c>
+      <c r="P85">
+        <v>0.3</v>
+      </c>
+      <c r="Q85">
+        <v>37.56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>108380139</v>
+      </c>
+      <c r="B86">
+        <v>3194980</v>
+      </c>
+      <c r="C86">
+        <v>948390</v>
+      </c>
+      <c r="D86">
+        <v>838</v>
+      </c>
+      <c r="E86">
+        <v>40</v>
+      </c>
+      <c r="F86">
+        <v>20</v>
+      </c>
+      <c r="G86">
+        <v>15</v>
+      </c>
+      <c r="H86">
+        <v>12000</v>
+      </c>
+      <c r="I86">
+        <v>31200</v>
+      </c>
+      <c r="J86">
+        <v>4680000</v>
+      </c>
+      <c r="K86">
+        <v>2.19</v>
+      </c>
+      <c r="L86">
+        <v>46.43</v>
+      </c>
+      <c r="M86">
+        <v>1.29</v>
+      </c>
+      <c r="N86">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="O86">
+        <v>1.19</v>
+      </c>
+      <c r="P86">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q86">
+        <v>37.79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>108380147</v>
+      </c>
+      <c r="B87">
+        <v>3194980</v>
+      </c>
+      <c r="C87">
+        <v>948410</v>
+      </c>
+      <c r="D87">
+        <v>838</v>
+      </c>
+      <c r="E87">
+        <v>40</v>
+      </c>
+      <c r="F87">
+        <v>20</v>
+      </c>
+      <c r="G87">
+        <v>15</v>
+      </c>
+      <c r="H87">
+        <v>12000</v>
+      </c>
+      <c r="I87">
+        <v>31200</v>
+      </c>
+      <c r="J87">
+        <v>4680000</v>
+      </c>
+      <c r="K87">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L87">
+        <v>46.4</v>
+      </c>
+      <c r="M87">
+        <v>1.3</v>
+      </c>
+      <c r="N87">
+        <v>9.08</v>
+      </c>
+      <c r="O87">
+        <v>1.19</v>
+      </c>
+      <c r="P87">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q87">
+        <v>37.76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>108380157</v>
+      </c>
+      <c r="B88">
+        <v>3194980</v>
+      </c>
+      <c r="C88">
+        <v>948430</v>
+      </c>
+      <c r="D88">
+        <v>838</v>
+      </c>
+      <c r="E88">
+        <v>40</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+      <c r="G88">
+        <v>15</v>
+      </c>
+      <c r="H88">
+        <v>12000</v>
+      </c>
+      <c r="I88">
+        <v>31200</v>
+      </c>
+      <c r="J88">
+        <v>4680000</v>
+      </c>
+      <c r="K88">
+        <v>2.21</v>
+      </c>
+      <c r="L88">
+        <v>46.37</v>
+      </c>
+      <c r="M88">
+        <v>1.3</v>
+      </c>
+      <c r="N88">
+        <v>9.11</v>
+      </c>
+      <c r="O88">
+        <v>1.19</v>
+      </c>
+      <c r="P88">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q88">
+        <v>37.74</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>108380167</v>
+      </c>
+      <c r="B89">
+        <v>3194980</v>
+      </c>
+      <c r="C89">
+        <v>948450</v>
+      </c>
+      <c r="D89">
+        <v>838</v>
+      </c>
+      <c r="E89">
+        <v>40</v>
+      </c>
+      <c r="F89">
+        <v>20</v>
+      </c>
+      <c r="G89">
+        <v>15</v>
+      </c>
+      <c r="H89">
+        <v>12000</v>
+      </c>
+      <c r="I89">
+        <v>31200</v>
+      </c>
+      <c r="J89">
+        <v>4680000</v>
+      </c>
+      <c r="K89">
+        <v>2.21</v>
+      </c>
+      <c r="L89">
+        <v>46.35</v>
+      </c>
+      <c r="M89">
+        <v>1.31</v>
+      </c>
+      <c r="N89">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="O89">
+        <v>1.19</v>
+      </c>
+      <c r="P89">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q89">
+        <v>37.72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>108380177</v>
+      </c>
+      <c r="B90">
+        <v>3194980</v>
+      </c>
+      <c r="C90">
+        <v>948470</v>
+      </c>
+      <c r="D90">
+        <v>838</v>
+      </c>
+      <c r="E90">
+        <v>40</v>
+      </c>
+      <c r="F90">
+        <v>20</v>
+      </c>
+      <c r="G90">
+        <v>15</v>
+      </c>
+      <c r="H90">
+        <v>12000</v>
+      </c>
+      <c r="I90">
+        <v>31200</v>
+      </c>
+      <c r="J90">
+        <v>4680000</v>
+      </c>
+      <c r="K90">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="L90">
+        <v>46.33</v>
+      </c>
+      <c r="M90">
+        <v>1.31</v>
+      </c>
+      <c r="N90">
+        <v>9.15</v>
+      </c>
+      <c r="O90">
+        <v>1.19</v>
+      </c>
+      <c r="P90">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q90">
+        <v>37.71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>108380135</v>
+      </c>
+      <c r="B91">
+        <v>3195020</v>
+      </c>
+      <c r="C91">
+        <v>948370</v>
+      </c>
+      <c r="D91">
+        <v>838</v>
+      </c>
+      <c r="E91">
+        <v>40</v>
+      </c>
+      <c r="F91">
+        <v>20</v>
+      </c>
+      <c r="G91">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>12000</v>
+      </c>
+      <c r="I91">
+        <v>31200</v>
+      </c>
+      <c r="J91">
+        <v>4680000</v>
+      </c>
+      <c r="K91">
+        <v>2.13</v>
+      </c>
+      <c r="L91">
+        <v>46.59</v>
+      </c>
+      <c r="M91">
+        <v>1.26</v>
+      </c>
+      <c r="N91">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="O91">
+        <v>1.19</v>
+      </c>
+      <c r="P91">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q91">
+        <v>37.909999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>108380140</v>
+      </c>
+      <c r="B92">
+        <v>3195020</v>
+      </c>
+      <c r="C92">
+        <v>948390</v>
+      </c>
+      <c r="D92">
+        <v>838</v>
+      </c>
+      <c r="E92">
+        <v>40</v>
+      </c>
+      <c r="F92">
+        <v>20</v>
+      </c>
+      <c r="G92">
+        <v>15</v>
+      </c>
+      <c r="H92">
+        <v>12000</v>
+      </c>
+      <c r="I92">
+        <v>31200</v>
+      </c>
+      <c r="J92">
+        <v>4680000</v>
+      </c>
+      <c r="K92">
+        <v>2.14</v>
+      </c>
+      <c r="L92">
+        <v>46.56</v>
+      </c>
+      <c r="M92">
+        <v>1.26</v>
+      </c>
+      <c r="N92">
+        <v>8.92</v>
+      </c>
+      <c r="O92">
+        <v>1.19</v>
+      </c>
+      <c r="P92">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q92">
+        <v>37.89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>108380148</v>
+      </c>
+      <c r="B93">
+        <v>3195020</v>
+      </c>
+      <c r="C93">
+        <v>948410</v>
+      </c>
+      <c r="D93">
+        <v>838</v>
+      </c>
+      <c r="E93">
+        <v>40</v>
+      </c>
+      <c r="F93">
+        <v>20</v>
+      </c>
+      <c r="G93">
+        <v>15</v>
+      </c>
+      <c r="H93">
+        <v>12000</v>
+      </c>
+      <c r="I93">
+        <v>31200</v>
+      </c>
+      <c r="J93">
+        <v>4680000</v>
+      </c>
+      <c r="K93">
+        <v>2.15</v>
+      </c>
+      <c r="L93">
+        <v>46.53</v>
+      </c>
+      <c r="M93">
+        <v>1.27</v>
+      </c>
+      <c r="N93">
+        <v>8.94</v>
+      </c>
+      <c r="O93">
+        <v>1.19</v>
+      </c>
+      <c r="P93">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q93">
+        <v>37.869999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>108380158</v>
+      </c>
+      <c r="B94">
+        <v>3195020</v>
+      </c>
+      <c r="C94">
+        <v>948430</v>
+      </c>
+      <c r="D94">
+        <v>838</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
+      </c>
+      <c r="F94">
+        <v>20</v>
+      </c>
+      <c r="G94">
+        <v>15</v>
+      </c>
+      <c r="H94">
+        <v>12000</v>
+      </c>
+      <c r="I94">
+        <v>31200</v>
+      </c>
+      <c r="J94">
+        <v>4680000</v>
+      </c>
+      <c r="K94">
+        <v>2.16</v>
+      </c>
+      <c r="L94">
+        <v>46.51</v>
+      </c>
+      <c r="M94">
+        <v>1.27</v>
+      </c>
+      <c r="N94">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="O94">
+        <v>1.19</v>
+      </c>
+      <c r="P94">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q94">
+        <v>37.85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>108380168</v>
+      </c>
+      <c r="B95">
+        <v>3195020</v>
+      </c>
+      <c r="C95">
+        <v>948450</v>
+      </c>
+      <c r="D95">
+        <v>838</v>
+      </c>
+      <c r="E95">
+        <v>40</v>
+      </c>
+      <c r="F95">
+        <v>20</v>
+      </c>
+      <c r="G95">
+        <v>15</v>
+      </c>
+      <c r="H95">
+        <v>12000</v>
+      </c>
+      <c r="I95">
+        <v>31200</v>
+      </c>
+      <c r="J95">
+        <v>4680000</v>
+      </c>
+      <c r="K95">
+        <v>2.16</v>
+      </c>
+      <c r="L95">
+        <v>46.5</v>
+      </c>
+      <c r="M95">
+        <v>1.28</v>
+      </c>
+      <c r="N95">
+        <v>8.98</v>
+      </c>
+      <c r="O95">
+        <v>1.19</v>
+      </c>
+      <c r="P95">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q95">
+        <v>37.840000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>108380136</v>
+      </c>
+      <c r="B96">
+        <v>3195060</v>
+      </c>
+      <c r="C96">
+        <v>948370</v>
+      </c>
+      <c r="D96">
+        <v>838</v>
+      </c>
+      <c r="E96">
+        <v>40</v>
+      </c>
+      <c r="F96">
+        <v>20</v>
+      </c>
+      <c r="G96">
+        <v>15</v>
+      </c>
+      <c r="H96">
+        <v>12000</v>
+      </c>
+      <c r="I96">
+        <v>31200</v>
+      </c>
+      <c r="J96">
+        <v>4680000</v>
+      </c>
+      <c r="K96">
+        <v>2.1</v>
+      </c>
+      <c r="L96">
+        <v>46.71</v>
+      </c>
+      <c r="M96">
+        <v>1.24</v>
+      </c>
+      <c r="N96">
+        <v>8.77</v>
+      </c>
+      <c r="O96">
+        <v>1.19</v>
+      </c>
+      <c r="P96">
+        <v>0.27</v>
+      </c>
+      <c r="Q96">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>108380141</v>
+      </c>
+      <c r="B97">
+        <v>3195060</v>
+      </c>
+      <c r="C97">
+        <v>948390</v>
+      </c>
+      <c r="D97">
+        <v>838</v>
+      </c>
+      <c r="E97">
+        <v>40</v>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="G97">
+        <v>15</v>
+      </c>
+      <c r="H97">
+        <v>12000</v>
+      </c>
+      <c r="I97">
+        <v>31200</v>
+      </c>
+      <c r="J97">
+        <v>4680000</v>
+      </c>
+      <c r="K97">
+        <v>2.11</v>
+      </c>
+      <c r="L97">
+        <v>46.68</v>
+      </c>
+      <c r="M97">
+        <v>1.24</v>
+      </c>
+      <c r="N97">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="O97">
+        <v>1.19</v>
+      </c>
+      <c r="P97">
+        <v>0.27</v>
+      </c>
+      <c r="Q97">
+        <v>37.979999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>108380149</v>
+      </c>
+      <c r="B98">
+        <v>3195060</v>
+      </c>
+      <c r="C98">
+        <v>948410</v>
+      </c>
+      <c r="D98">
+        <v>838</v>
+      </c>
+      <c r="E98">
+        <v>40</v>
+      </c>
+      <c r="F98">
+        <v>20</v>
+      </c>
+      <c r="G98">
+        <v>15</v>
+      </c>
+      <c r="H98">
+        <v>12000</v>
+      </c>
+      <c r="I98">
+        <v>31200</v>
+      </c>
+      <c r="J98">
+        <v>4680000</v>
+      </c>
+      <c r="K98">
+        <v>2.11</v>
+      </c>
+      <c r="L98">
+        <v>46.66</v>
+      </c>
+      <c r="M98">
+        <v>1.25</v>
+      </c>
+      <c r="N98">
+        <v>8.82</v>
+      </c>
+      <c r="O98">
+        <v>1.19</v>
+      </c>
+      <c r="P98">
+        <v>0.27</v>
+      </c>
+      <c r="Q98">
+        <v>37.96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>108380159</v>
+      </c>
+      <c r="B99">
+        <v>3195060</v>
+      </c>
+      <c r="C99">
+        <v>948430</v>
+      </c>
+      <c r="D99">
+        <v>838</v>
+      </c>
+      <c r="E99">
+        <v>40</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99">
+        <v>15</v>
+      </c>
+      <c r="H99">
+        <v>12000</v>
+      </c>
+      <c r="I99">
+        <v>31200</v>
+      </c>
+      <c r="J99">
+        <v>4680000</v>
+      </c>
+      <c r="K99">
+        <v>2.12</v>
+      </c>
+      <c r="L99">
+        <v>46.64</v>
+      </c>
+      <c r="M99">
+        <v>1.25</v>
+      </c>
+      <c r="N99">
+        <v>8.83</v>
+      </c>
+      <c r="O99">
+        <v>1.19</v>
+      </c>
+      <c r="P99">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q99">
+        <v>37.950000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>108380130</v>
+      </c>
+      <c r="B100">
+        <v>3195100</v>
+      </c>
+      <c r="C100">
+        <v>948350</v>
+      </c>
+      <c r="D100">
+        <v>838</v>
+      </c>
+      <c r="E100">
+        <v>40</v>
+      </c>
+      <c r="F100">
+        <v>20</v>
+      </c>
+      <c r="G100">
+        <v>15</v>
+      </c>
+      <c r="H100">
+        <v>12000</v>
+      </c>
+      <c r="I100">
+        <v>31200</v>
+      </c>
+      <c r="J100">
+        <v>4680000</v>
+      </c>
+      <c r="K100">
+        <v>2.06</v>
+      </c>
+      <c r="L100">
+        <v>46.83</v>
+      </c>
+      <c r="M100">
+        <v>1.21</v>
+      </c>
+      <c r="N100">
+        <v>8.64</v>
+      </c>
+      <c r="O100">
+        <v>1.18</v>
+      </c>
+      <c r="P100">
+        <v>0.27</v>
+      </c>
+      <c r="Q100">
+        <v>38.1</v>
       </c>
     </row>
   </sheetData>
